--- a/documents/report_9-4-2024.xlsx
+++ b/documents/report_9-4-2024.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\laragon\www\Logic_Partner\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFE83793-D510-4FC2-805A-4AE83BD66D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B49D6F8-0C05-4E3D-8584-986FD127E156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{B1115AE1-2B23-4F21-B1E1-09F1344D1801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{B1115AE1-2B23-4F21-B1E1-09F1344D1801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -70,6 +71,12 @@
   </si>
   <si>
     <t>working on Role Management</t>
+  </si>
+  <si>
+    <t>working on Permission Management</t>
+  </si>
+  <si>
+    <t>Report Date: 10 April 2025</t>
   </si>
 </sst>
 </file>
@@ -438,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A575563-D8AE-4B4B-BD2F-4FB7CCDD12C1}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,4 +553,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC13C4C-45AE-46A1-8832-6160361D7D63}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>